--- a/classfiers/bloated/multinomialNB/bloated-multinomialNB-results.xlsx
+++ b/classfiers/bloated/multinomialNB/bloated-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.615909090909091</v>
+        <v>0.6144278606965174</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2548585485854858</v>
+        <v>0.2532739239590166</v>
       </c>
       <c r="E2" t="n">
-        <v>0.615909090909091</v>
+        <v>0.6144278606965174</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8704545454545455</v>
+        <v>0.8681592039800995</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5822139733870206</v>
+        <v>0.5799129237524653</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8704545454545455</v>
+        <v>0.8681592039800995</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7417832167832168</v>
+        <v>0.8014473089099955</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6191346153846153</v>
+        <v>0.6449760765550239</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7417832167832168</v>
+        <v>0.8014473089099955</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4159090909090909</v>
+        <v>0.41</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4409638554216867</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4159090909090909</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5361784334387074</v>
+        <v>0.5391666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5521900519673348</v>
+        <v>0.5567944250871081</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5361784334387074</v>
+        <v>0.5391666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1946718146718147</v>
+        <v>0.1997791828929553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6360468754989304</v>
+        <v>0.6466402080506558</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4898722089492287</v>
+        <v>0.4942255124239143</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6360468754989304</v>
+        <v>0.6466402080506558</v>
       </c>
     </row>
   </sheetData>
